--- a/PredictionSheets/vm 2014 tippekonkuranse - Kristian.xlsx
+++ b/PredictionSheets/vm 2014 tippekonkuranse - Kristian.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\R\Documents\GitHub\VMTipping\PredictionSheets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="150" yWindow="570" windowWidth="28455" windowHeight="11955" activeTab="1"/>
   </bookViews>
@@ -11,12 +16,12 @@
     <sheet name="Sluttspilltipp" sheetId="2" r:id="rId2"/>
     <sheet name="Kampoppsett" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="136">
   <si>
     <t>VM-tippen 2014</t>
   </si>
@@ -418,12 +423,6 @@
   </si>
   <si>
     <t>Spania</t>
-  </si>
-  <si>
-    <t>Nederland</t>
-  </si>
-  <si>
-    <t>Tyskland</t>
   </si>
   <si>
     <t>Russland</t>
@@ -435,14 +434,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
     <numFmt numFmtId="165" formatCode="d/\ mmmm;@"/>
     <numFmt numFmtId="166" formatCode="hh:mm;@"/>
     <numFmt numFmtId="167" formatCode="d\-mmm;@"/>
   </numFmts>
-  <fonts count="76">
+  <fonts count="76" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2023,6 +2022,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2069,7 +2076,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2101,9 +2108,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2135,6 +2143,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2310,17 +2319,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.42578125" defaultRowHeight="13.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10.42578125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="11" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="19.5" customHeight="1">
+    <row r="1" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="39"/>
       <c r="B1" s="29" t="s">
         <v>0</v>
@@ -2339,7 +2348,7 @@
       <c r="N1" s="39"/>
       <c r="O1" s="39"/>
     </row>
-    <row r="2" spans="1:15" ht="15" customHeight="1">
+    <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
       <c r="B2" s="65"/>
       <c r="C2" s="65"/>
@@ -2356,7 +2365,7 @@
       <c r="N2" s="39"/>
       <c r="O2" s="39"/>
     </row>
-    <row r="3" spans="1:15" ht="27.75" customHeight="1">
+    <row r="3" spans="1:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
         <v>1</v>
       </c>
@@ -2377,7 +2386,7 @@
       <c r="N3" s="39"/>
       <c r="O3" s="39"/>
     </row>
-    <row r="4" spans="1:15" ht="15">
+    <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="27"/>
       <c r="B4" s="27"/>
       <c r="C4" s="27"/>
@@ -2394,7 +2403,7 @@
       <c r="N4" s="39"/>
       <c r="O4" s="39"/>
     </row>
-    <row r="5" spans="1:15" ht="15">
+    <row r="5" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="39"/>
       <c r="B5" s="39"/>
       <c r="C5" s="39"/>
@@ -2411,7 +2420,7 @@
       <c r="N5" s="39"/>
       <c r="O5" s="39"/>
     </row>
-    <row r="6" spans="1:15" ht="15">
+    <row r="6" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="39"/>
       <c r="B6" s="39"/>
       <c r="C6" s="39"/>
@@ -2428,7 +2437,7 @@
       <c r="N6" s="39"/>
       <c r="O6" s="39"/>
     </row>
-    <row r="7" spans="1:15" ht="15">
+    <row r="7" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="39"/>
       <c r="B7" s="39"/>
       <c r="C7" s="39"/>
@@ -2445,7 +2454,7 @@
       <c r="N7" s="39"/>
       <c r="O7" s="39"/>
     </row>
-    <row r="8" spans="1:15" ht="15">
+    <row r="8" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="39" t="s">
         <v>3</v>
       </c>
@@ -2472,7 +2481,7 @@
       <c r="N8" s="39"/>
       <c r="O8" s="39"/>
     </row>
-    <row r="9" spans="1:15" ht="15">
+    <row r="9" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="39"/>
       <c r="B9" s="39"/>
       <c r="C9" s="21" t="s">
@@ -2497,7 +2506,7 @@
       <c r="N9" s="39"/>
       <c r="O9" s="39"/>
     </row>
-    <row r="10" spans="1:15" ht="15" customHeight="1">
+    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="65" t="s">
         <v>6</v>
       </c>
@@ -2530,7 +2539,7 @@
       <c r="N10" s="39"/>
       <c r="O10" s="39"/>
     </row>
-    <row r="11" spans="1:15" ht="27.75" customHeight="1">
+    <row r="11" spans="1:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>9</v>
       </c>
@@ -2569,7 +2578,7 @@
       <c r="N11" s="39"/>
       <c r="O11" s="39"/>
     </row>
-    <row r="12" spans="1:15" ht="27.75" customHeight="1">
+    <row r="12" spans="1:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="55" t="s">
         <v>13</v>
       </c>
@@ -2608,7 +2617,7 @@
       <c r="N12" s="39"/>
       <c r="O12" s="39"/>
     </row>
-    <row r="13" spans="1:15" ht="27.75" customHeight="1">
+    <row r="13" spans="1:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="55" t="s">
         <v>9</v>
       </c>
@@ -2647,7 +2656,7 @@
       <c r="N13" s="39"/>
       <c r="O13" s="39"/>
     </row>
-    <row r="14" spans="1:15" ht="27.75" customHeight="1">
+    <row r="14" spans="1:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="55" t="s">
         <v>14</v>
       </c>
@@ -2686,7 +2695,7 @@
       <c r="N14" s="39"/>
       <c r="O14" s="39"/>
     </row>
-    <row r="15" spans="1:15" ht="27.75" customHeight="1">
+    <row r="15" spans="1:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="55" t="s">
         <v>14</v>
       </c>
@@ -2725,7 +2734,7 @@
       <c r="N15" s="39"/>
       <c r="O15" s="39"/>
     </row>
-    <row r="16" spans="1:15" ht="27.75" customHeight="1">
+    <row r="16" spans="1:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="48" t="s">
         <v>10</v>
       </c>
@@ -2764,7 +2773,7 @@
       <c r="N16" s="39"/>
       <c r="O16" s="39"/>
     </row>
-    <row r="17" spans="1:15" ht="20.25" customHeight="1">
+    <row r="17" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="27"/>
       <c r="B17" s="27"/>
       <c r="C17" s="38"/>
@@ -2781,7 +2790,7 @@
       <c r="N17" s="39"/>
       <c r="O17" s="39"/>
     </row>
-    <row r="18" spans="1:15" ht="20.25" customHeight="1">
+    <row r="18" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="65" t="s">
         <v>17</v>
       </c>
@@ -2802,7 +2811,7 @@
       <c r="N18" s="39"/>
       <c r="O18" s="39"/>
     </row>
-    <row r="19" spans="1:15" ht="27.75" customHeight="1">
+    <row r="19" spans="1:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>19</v>
       </c>
@@ -2841,7 +2850,7 @@
       <c r="N19" s="39"/>
       <c r="O19" s="39"/>
     </row>
-    <row r="20" spans="1:15" ht="27.75" customHeight="1">
+    <row r="20" spans="1:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="55" t="s">
         <v>23</v>
       </c>
@@ -2880,7 +2889,7 @@
       <c r="N20" s="39"/>
       <c r="O20" s="39"/>
     </row>
-    <row r="21" spans="1:15" ht="27.75" customHeight="1">
+    <row r="21" spans="1:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="55" t="s">
         <v>19</v>
       </c>
@@ -2919,7 +2928,7 @@
       <c r="N21" s="39"/>
       <c r="O21" s="39"/>
     </row>
-    <row r="22" spans="1:15" ht="27.75" customHeight="1">
+    <row r="22" spans="1:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="55" t="s">
         <v>24</v>
       </c>
@@ -2958,7 +2967,7 @@
       <c r="N22" s="39"/>
       <c r="O22" s="39"/>
     </row>
-    <row r="23" spans="1:15" ht="27.75" customHeight="1">
+    <row r="23" spans="1:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="55" t="s">
         <v>24</v>
       </c>
@@ -2997,7 +3006,7 @@
       <c r="N23" s="39"/>
       <c r="O23" s="39"/>
     </row>
-    <row r="24" spans="1:15" ht="27.75" customHeight="1">
+    <row r="24" spans="1:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="48" t="s">
         <v>20</v>
       </c>
@@ -3036,7 +3045,7 @@
       <c r="N24" s="39"/>
       <c r="O24" s="39"/>
     </row>
-    <row r="25" spans="1:15" ht="20.25" customHeight="1">
+    <row r="25" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="27"/>
       <c r="B25" s="27"/>
       <c r="C25" s="38"/>
@@ -3053,7 +3062,7 @@
       <c r="N25" s="39"/>
       <c r="O25" s="39"/>
     </row>
-    <row r="26" spans="1:15" ht="20.25" customHeight="1">
+    <row r="26" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="65" t="s">
         <v>27</v>
       </c>
@@ -3074,7 +3083,7 @@
       <c r="N26" s="39"/>
       <c r="O26" s="39"/>
     </row>
-    <row r="27" spans="1:15" ht="27.75" customHeight="1">
+    <row r="27" spans="1:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
         <v>29</v>
       </c>
@@ -3113,7 +3122,7 @@
       <c r="N27" s="39"/>
       <c r="O27" s="39"/>
     </row>
-    <row r="28" spans="1:15" ht="27.75" customHeight="1">
+    <row r="28" spans="1:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="55" t="s">
         <v>33</v>
       </c>
@@ -3152,7 +3161,7 @@
       <c r="N28" s="39"/>
       <c r="O28" s="39"/>
     </row>
-    <row r="29" spans="1:15" ht="27.75" customHeight="1">
+    <row r="29" spans="1:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="55" t="s">
         <v>29</v>
       </c>
@@ -3191,7 +3200,7 @@
       <c r="N29" s="39"/>
       <c r="O29" s="39"/>
     </row>
-    <row r="30" spans="1:15" ht="27.75" customHeight="1">
+    <row r="30" spans="1:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="55" t="s">
         <v>34</v>
       </c>
@@ -3230,7 +3239,7 @@
       <c r="N30" s="39"/>
       <c r="O30" s="39"/>
     </row>
-    <row r="31" spans="1:15" ht="27.75" customHeight="1">
+    <row r="31" spans="1:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="55" t="s">
         <v>34</v>
       </c>
@@ -3269,7 +3278,7 @@
       <c r="N31" s="39"/>
       <c r="O31" s="39"/>
     </row>
-    <row r="32" spans="1:15" ht="27.75" customHeight="1">
+    <row r="32" spans="1:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="48" t="s">
         <v>30</v>
       </c>
@@ -3308,7 +3317,7 @@
       <c r="N32" s="39"/>
       <c r="O32" s="39"/>
     </row>
-    <row r="33" spans="1:15" ht="20.25" customHeight="1">
+    <row r="33" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="27"/>
       <c r="B33" s="27"/>
       <c r="C33" s="38"/>
@@ -3325,7 +3334,7 @@
       <c r="N33" s="39"/>
       <c r="O33" s="39"/>
     </row>
-    <row r="34" spans="1:15" ht="20.25" customHeight="1">
+    <row r="34" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="65" t="s">
         <v>37</v>
       </c>
@@ -3346,7 +3355,7 @@
       <c r="N34" s="39"/>
       <c r="O34" s="39"/>
     </row>
-    <row r="35" spans="1:15" ht="27.75" customHeight="1">
+    <row r="35" spans="1:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
         <v>39</v>
       </c>
@@ -3385,7 +3394,7 @@
       <c r="N35" s="39"/>
       <c r="O35" s="39"/>
     </row>
-    <row r="36" spans="1:15" ht="27.75" customHeight="1">
+    <row r="36" spans="1:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="55" t="s">
         <v>43</v>
       </c>
@@ -3424,7 +3433,7 @@
       <c r="N36" s="39"/>
       <c r="O36" s="39"/>
     </row>
-    <row r="37" spans="1:15" ht="27.75" customHeight="1">
+    <row r="37" spans="1:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="55" t="s">
         <v>39</v>
       </c>
@@ -3463,7 +3472,7 @@
       <c r="N37" s="39"/>
       <c r="O37" s="39"/>
     </row>
-    <row r="38" spans="1:15" ht="27.75" customHeight="1">
+    <row r="38" spans="1:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="55" t="s">
         <v>44</v>
       </c>
@@ -3502,7 +3511,7 @@
       <c r="N38" s="39"/>
       <c r="O38" s="39"/>
     </row>
-    <row r="39" spans="1:15" ht="27.75" customHeight="1">
+    <row r="39" spans="1:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="55" t="s">
         <v>44</v>
       </c>
@@ -3541,7 +3550,7 @@
       <c r="N39" s="39"/>
       <c r="O39" s="39"/>
     </row>
-    <row r="40" spans="1:15" ht="27.75" customHeight="1">
+    <row r="40" spans="1:15" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="48" t="s">
         <v>40</v>
       </c>
@@ -3580,7 +3589,7 @@
       <c r="N40" s="39"/>
       <c r="O40" s="39"/>
     </row>
-    <row r="41" spans="1:15" ht="15">
+    <row r="41" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="27"/>
       <c r="B41" s="27"/>
       <c r="C41" s="27"/>
@@ -3597,7 +3606,7 @@
       <c r="N41" s="39"/>
       <c r="O41" s="39"/>
     </row>
-    <row r="42" spans="1:15" ht="15">
+    <row r="42" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="39"/>
       <c r="B42" s="39"/>
       <c r="C42" s="39"/>
@@ -3620,14 +3629,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:D20"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.42578125" defaultRowHeight="13.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10.42578125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.42578125" customWidth="1"/>
     <col min="2" max="2" width="22.7109375" customWidth="1"/>
@@ -3635,7 +3644,7 @@
     <col min="4" max="4" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15">
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
         <v>47</v>
       </c>
@@ -3645,7 +3654,7 @@
       <c r="E1" s="39"/>
       <c r="F1" s="39"/>
     </row>
-    <row r="2" spans="1:6" ht="15">
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="39"/>
       <c r="B2" s="39"/>
       <c r="C2" s="39"/>
@@ -3653,7 +3662,7 @@
       <c r="E2" s="39"/>
       <c r="F2" s="39"/>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" thickBot="1">
+    <row r="3" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65" t="s">
         <v>48</v>
       </c>
@@ -3663,7 +3672,7 @@
       <c r="E3" s="39"/>
       <c r="F3" s="39"/>
     </row>
-    <row r="4" spans="1:6" ht="24" customHeight="1" thickBot="1">
+    <row r="4" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="75" t="s">
         <v>131</v>
       </c>
@@ -3679,9 +3688,9 @@
       <c r="E4" s="13"/>
       <c r="F4" s="39"/>
     </row>
-    <row r="5" spans="1:6" ht="24" customHeight="1" thickBot="1">
+    <row r="5" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="75" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="B5" s="75" t="s">
         <v>26</v>
@@ -3695,28 +3704,28 @@
       <c r="E5" s="13"/>
       <c r="F5" s="39"/>
     </row>
-    <row r="6" spans="1:6" ht="24" customHeight="1" thickBot="1">
+    <row r="6" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="75" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="75" t="s">
-        <v>135</v>
+        <v>31</v>
       </c>
       <c r="C6" s="75" t="s">
         <v>40</v>
       </c>
       <c r="D6" s="76" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="39"/>
     </row>
-    <row r="7" spans="1:6" ht="24" customHeight="1" thickBot="1">
+    <row r="7" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="77" t="s">
         <v>39</v>
       </c>
       <c r="B7" s="77" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C7" s="77" t="s">
         <v>34</v>
@@ -3727,7 +3736,7 @@
       <c r="E7" s="13"/>
       <c r="F7" s="39"/>
     </row>
-    <row r="8" spans="1:6" ht="15">
+    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="27"/>
       <c r="B8" s="27"/>
       <c r="C8" s="27"/>
@@ -3735,7 +3744,7 @@
       <c r="E8" s="39"/>
       <c r="F8" s="39"/>
     </row>
-    <row r="9" spans="1:6" ht="15">
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="39"/>
       <c r="B9" s="39"/>
       <c r="C9" s="39"/>
@@ -3743,7 +3752,7 @@
       <c r="E9" s="39"/>
       <c r="F9" s="39"/>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" thickBot="1">
+    <row r="10" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="24" t="s">
         <v>49</v>
       </c>
@@ -3753,7 +3762,7 @@
       <c r="E10" s="39"/>
       <c r="F10" s="39"/>
     </row>
-    <row r="11" spans="1:6" ht="24" customHeight="1" thickBot="1">
+    <row r="11" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="79" t="s">
         <v>131</v>
       </c>
@@ -3761,7 +3770,7 @@
         <v>133</v>
       </c>
       <c r="C11" s="79" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="D11" s="80" t="s">
         <v>40</v>
@@ -3769,7 +3778,7 @@
       <c r="E11" s="13"/>
       <c r="F11" s="39"/>
     </row>
-    <row r="12" spans="1:6" ht="24" customHeight="1" thickBot="1">
+    <row r="12" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="81" t="s">
         <v>132</v>
       </c>
@@ -3777,15 +3786,15 @@
         <v>12</v>
       </c>
       <c r="C12" s="81" t="s">
-        <v>135</v>
+        <v>31</v>
       </c>
       <c r="D12" s="82" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="39"/>
     </row>
-    <row r="13" spans="1:6" ht="15">
+    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="27"/>
       <c r="B13" s="27"/>
       <c r="C13" s="27"/>
@@ -3793,7 +3802,7 @@
       <c r="E13" s="39"/>
       <c r="F13" s="39"/>
     </row>
-    <row r="14" spans="1:6" ht="15">
+    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="39"/>
       <c r="B14" s="39"/>
       <c r="C14" s="39"/>
@@ -3801,7 +3810,7 @@
       <c r="E14" s="39"/>
       <c r="F14" s="39"/>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" thickBot="1">
+    <row r="15" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="65" t="s">
         <v>50</v>
       </c>
@@ -3811,7 +3820,7 @@
       <c r="E15" s="39"/>
       <c r="F15" s="39"/>
     </row>
-    <row r="16" spans="1:6" ht="24" customHeight="1" thickBot="1">
+    <row r="16" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="81" t="s">
         <v>132</v>
       </c>
@@ -3819,15 +3828,15 @@
         <v>133</v>
       </c>
       <c r="C16" s="81" t="s">
-        <v>135</v>
+        <v>31</v>
       </c>
       <c r="D16" s="82" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="39"/>
     </row>
-    <row r="17" spans="1:6" ht="15">
+    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="27"/>
       <c r="B17" s="27"/>
       <c r="C17" s="27"/>
@@ -3835,7 +3844,7 @@
       <c r="E17" s="39"/>
       <c r="F17" s="39"/>
     </row>
-    <row r="18" spans="1:6" ht="15">
+    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="39"/>
       <c r="B18" s="39"/>
       <c r="C18" s="39"/>
@@ -3843,7 +3852,7 @@
       <c r="E18" s="39"/>
       <c r="F18" s="39"/>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" thickBot="1">
+    <row r="19" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="65" t="s">
         <v>51</v>
       </c>
@@ -3853,9 +3862,9 @@
       <c r="E19" s="39"/>
       <c r="F19" s="39"/>
     </row>
-    <row r="20" spans="1:6" ht="24" customHeight="1" thickBot="1">
+    <row r="20" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="77" t="s">
-        <v>135</v>
+        <v>31</v>
       </c>
       <c r="B20" s="77" t="s">
         <v>132</v>
@@ -3864,7 +3873,7 @@
         <v>133</v>
       </c>
       <c r="D20" s="78" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="39"/>
@@ -3876,12 +3885,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K56"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.42578125" defaultRowHeight="13.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10.42578125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="37.7109375" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" customWidth="1"/>
@@ -3889,7 +3898,7 @@
     <col min="9" max="9" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>52</v>
       </c>
@@ -3906,7 +3915,7 @@
       <c r="J1" s="39"/>
       <c r="K1" s="39"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="49">
         <v>41802</v>
       </c>
@@ -3929,7 +3938,7 @@
       <c r="J2" s="4"/>
       <c r="K2" s="39"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>41803</v>
       </c>
@@ -3958,7 +3967,7 @@
       </c>
       <c r="K3" s="7"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>41807</v>
       </c>
@@ -3987,7 +3996,7 @@
       </c>
       <c r="K4" s="7"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>41809</v>
       </c>
@@ -4016,7 +4025,7 @@
       </c>
       <c r="K5" s="7"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>41813</v>
       </c>
@@ -4045,7 +4054,7 @@
       </c>
       <c r="K6" s="7"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="69">
         <v>41813</v>
       </c>
@@ -4074,7 +4083,7 @@
       </c>
       <c r="K7" s="7"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="56"/>
       <c r="B8" s="42"/>
       <c r="C8" s="25"/>
@@ -4095,7 +4104,7 @@
       </c>
       <c r="K8" s="7"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="49">
         <v>41803</v>
       </c>
@@ -4124,7 +4133,7 @@
       </c>
       <c r="K9" s="7"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>41804</v>
       </c>
@@ -4153,7 +4162,7 @@
       </c>
       <c r="K10" s="7"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>41808</v>
       </c>
@@ -4174,7 +4183,7 @@
       <c r="J11" s="70"/>
       <c r="K11" s="39"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>41808</v>
       </c>
@@ -4197,7 +4206,7 @@
       <c r="J12" s="4"/>
       <c r="K12" s="39"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>41813</v>
       </c>
@@ -4226,7 +4235,7 @@
       </c>
       <c r="K13" s="7"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="69">
         <v>41813</v>
       </c>
@@ -4255,7 +4264,7 @@
       </c>
       <c r="K14" s="7"/>
     </row>
-    <row r="15" spans="1:11" s="39" customFormat="1">
+    <row r="15" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="56"/>
       <c r="B15" s="42"/>
       <c r="C15" s="25"/>
@@ -4276,7 +4285,7 @@
       </c>
       <c r="K15" s="7"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="49">
         <v>41804</v>
       </c>
@@ -4305,7 +4314,7 @@
       </c>
       <c r="K16" s="7"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>41805</v>
       </c>
@@ -4326,7 +4335,7 @@
       <c r="J17" s="70"/>
       <c r="K17" s="39"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>41809</v>
       </c>
@@ -4349,7 +4358,7 @@
       <c r="J18" s="4"/>
       <c r="K18" s="39"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>41810</v>
       </c>
@@ -4378,7 +4387,7 @@
       </c>
       <c r="K19" s="7"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>41814</v>
       </c>
@@ -4407,7 +4416,7 @@
       </c>
       <c r="K20" s="7"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="69">
         <v>41814</v>
       </c>
@@ -4428,7 +4437,7 @@
       <c r="J21" s="70"/>
       <c r="K21" s="39"/>
     </row>
-    <row r="22" spans="1:11" s="39" customFormat="1">
+    <row r="22" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="56"/>
       <c r="B22" s="42"/>
       <c r="C22" s="25"/>
@@ -4442,7 +4451,7 @@
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="49">
         <v>41804</v>
       </c>
@@ -4469,7 +4478,7 @@
       </c>
       <c r="K23" s="7"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>41805</v>
       </c>
@@ -4490,7 +4499,7 @@
       <c r="J24" s="70"/>
       <c r="K24" s="39"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>41809</v>
       </c>
@@ -4513,7 +4522,7 @@
       <c r="J25" s="4"/>
       <c r="K25" s="39"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>41810</v>
       </c>
@@ -4540,7 +4549,7 @@
       </c>
       <c r="K26" s="7"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>41814</v>
       </c>
@@ -4561,7 +4570,7 @@
       <c r="J27" s="70"/>
       <c r="K27" s="39"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="69">
         <v>41814</v>
       </c>
@@ -4582,7 +4591,7 @@
       <c r="J28" s="39"/>
       <c r="K28" s="39"/>
     </row>
-    <row r="29" spans="1:11" s="39" customFormat="1">
+    <row r="29" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="56"/>
       <c r="B29" s="42"/>
       <c r="C29" s="25"/>
@@ -4591,7 +4600,7 @@
       <c r="F29" s="16"/>
       <c r="G29" s="68"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="49">
         <v>41805</v>
       </c>
@@ -4612,7 +4621,7 @@
       <c r="J30" s="39"/>
       <c r="K30" s="39"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>41805</v>
       </c>
@@ -4633,7 +4642,7 @@
       <c r="J31" s="39"/>
       <c r="K31" s="39"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>41810</v>
       </c>
@@ -4654,7 +4663,7 @@
       <c r="J32" s="39"/>
       <c r="K32" s="39"/>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>41811</v>
       </c>
@@ -4675,7 +4684,7 @@
       <c r="J33" s="39"/>
       <c r="K33" s="39"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>41815</v>
       </c>
@@ -4696,7 +4705,7 @@
       <c r="J34" s="39"/>
       <c r="K34" s="39"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="69">
         <v>41815</v>
       </c>
@@ -4717,7 +4726,7 @@
       <c r="J35" s="39"/>
       <c r="K35" s="39"/>
     </row>
-    <row r="36" spans="1:11" s="39" customFormat="1">
+    <row r="36" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="56"/>
       <c r="B36" s="42"/>
       <c r="C36" s="25"/>
@@ -4725,7 +4734,7 @@
       <c r="E36" s="7"/>
       <c r="G36" s="68"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="49">
         <v>41806</v>
       </c>
@@ -4746,7 +4755,7 @@
       <c r="J37" s="39"/>
       <c r="K37" s="39"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
         <v>41806</v>
       </c>
@@ -4767,7 +4776,7 @@
       <c r="J38" s="39"/>
       <c r="K38" s="39"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <v>41811</v>
       </c>
@@ -4788,7 +4797,7 @@
       <c r="J39" s="39"/>
       <c r="K39" s="39"/>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <v>41812</v>
       </c>
@@ -4809,7 +4818,7 @@
       <c r="J40" s="39"/>
       <c r="K40" s="39"/>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
         <v>41815</v>
       </c>
@@ -4830,7 +4839,7 @@
       <c r="J41" s="39"/>
       <c r="K41" s="39"/>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="69">
         <v>41815</v>
       </c>
@@ -4851,7 +4860,7 @@
       <c r="J42" s="39"/>
       <c r="K42" s="39"/>
     </row>
-    <row r="43" spans="1:11" s="39" customFormat="1">
+    <row r="43" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="56"/>
       <c r="B43" s="42"/>
       <c r="C43" s="25"/>
@@ -4859,7 +4868,7 @@
       <c r="E43" s="7"/>
       <c r="G43" s="68"/>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="49">
         <v>41806</v>
       </c>
@@ -4880,7 +4889,7 @@
       <c r="J44" s="39"/>
       <c r="K44" s="39"/>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <v>41807</v>
       </c>
@@ -4901,7 +4910,7 @@
       <c r="J45" s="39"/>
       <c r="K45" s="39"/>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
         <v>41811</v>
       </c>
@@ -4922,7 +4931,7 @@
       <c r="J46" s="39"/>
       <c r="K46" s="39"/>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>41813</v>
       </c>
@@ -4943,7 +4952,7 @@
       <c r="J47" s="39"/>
       <c r="K47" s="39"/>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="8">
         <v>41816</v>
       </c>
@@ -4964,7 +4973,7 @@
       <c r="J48" s="39"/>
       <c r="K48" s="39"/>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="69">
         <v>41816</v>
       </c>
@@ -4985,7 +4994,7 @@
       <c r="J49" s="39"/>
       <c r="K49" s="39"/>
     </row>
-    <row r="50" spans="1:11" s="39" customFormat="1">
+    <row r="50" spans="1:11" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="56"/>
       <c r="B50" s="42"/>
       <c r="C50" s="25"/>
@@ -4993,7 +5002,7 @@
       <c r="E50" s="7"/>
       <c r="G50" s="68"/>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="49">
         <v>41807</v>
       </c>
@@ -5014,7 +5023,7 @@
       <c r="J51" s="39"/>
       <c r="K51" s="39"/>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="8">
         <v>41808</v>
       </c>
@@ -5035,7 +5044,7 @@
       <c r="J52" s="39"/>
       <c r="K52" s="39"/>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="8">
         <v>41812</v>
       </c>
@@ -5056,7 +5065,7 @@
       <c r="J53" s="39"/>
       <c r="K53" s="39"/>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="8">
         <v>41812</v>
       </c>
@@ -5077,7 +5086,7 @@
       <c r="J54" s="39"/>
       <c r="K54" s="39"/>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="8">
         <v>41816</v>
       </c>
@@ -5098,7 +5107,7 @@
       <c r="J55" s="39"/>
       <c r="K55" s="39"/>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="69">
         <v>41816</v>
       </c>
